--- a/data/trans_orig/P36B02_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B02_R-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>464952</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>453599</v>
+        <v>453175</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>473375</v>
+        <v>473519</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9410769296141179</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.918096958612368</v>
+        <v>0.9172394215073245</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9581257654790675</v>
+        <v>0.9584170557518832</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>456</v>
@@ -765,19 +765,19 @@
         <v>436280</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>424762</v>
+        <v>422852</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>446086</v>
+        <v>445497</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9332413172480717</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9086038039813528</v>
+        <v>0.9045173116227966</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9542170431937654</v>
+        <v>0.9529566335326976</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>926</v>
@@ -786,19 +786,19 @@
         <v>901232</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>885732</v>
+        <v>883644</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>916159</v>
+        <v>913482</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9372674012100253</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9211468394394791</v>
+        <v>0.918975852100314</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.952790632912364</v>
+        <v>0.9500069614611238</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>29112</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>20689</v>
+        <v>20545</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>40465</v>
+        <v>40889</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05892307038588204</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04187423452093256</v>
+        <v>0.0415829442481168</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08190304138763196</v>
+        <v>0.08276057849267543</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>33</v>
@@ -836,19 +836,19 @@
         <v>31209</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>21403</v>
+        <v>21992</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>42727</v>
+        <v>44637</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06675868275192827</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04578295680623466</v>
+        <v>0.04704336646730258</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09139619601864774</v>
+        <v>0.09548268837720353</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>62</v>
@@ -857,19 +857,19 @@
         <v>60321</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>45394</v>
+        <v>48071</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>75821</v>
+        <v>77909</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06273259878997474</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04720936708763602</v>
+        <v>0.04999303853887618</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07885316056052093</v>
+        <v>0.08102414789968614</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>692100</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>676599</v>
+        <v>677117</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>703039</v>
+        <v>703601</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9421368348802402</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9210360058813865</v>
+        <v>0.9217406285719518</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9570277794805827</v>
+        <v>0.9577919164186142</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>560</v>
@@ -982,19 +982,19 @@
         <v>590420</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>575474</v>
+        <v>577532</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>599676</v>
+        <v>601530</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9439255326231292</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9200317582726943</v>
+        <v>0.9233209525182433</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9587243587236821</v>
+        <v>0.9616883081337784</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1221</v>
@@ -1003,19 +1003,19 @@
         <v>1282520</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1265786</v>
+        <v>1262713</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1299868</v>
+        <v>1298708</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9429594354039456</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.930655585532866</v>
+        <v>0.9283964709300294</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9557139536464444</v>
+        <v>0.9548616795321088</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>42507</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>31568</v>
+        <v>31006</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>58008</v>
+        <v>57490</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05786316511975972</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0429722205194173</v>
+        <v>0.04220808358138579</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07896399411861348</v>
+        <v>0.07825937142804822</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>31</v>
@@ -1053,19 +1053,19 @@
         <v>35074</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>25818</v>
+        <v>23964</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>50020</v>
+        <v>47962</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05607446737687088</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0412756412763178</v>
+        <v>0.0383116918662216</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0799682417273057</v>
+        <v>0.0766790474817567</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>72</v>
@@ -1074,19 +1074,19 @@
         <v>77581</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>60233</v>
+        <v>61393</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>94315</v>
+        <v>97388</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05704056459605449</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04428604635355551</v>
+        <v>0.04513832046789121</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06934441446713401</v>
+        <v>0.07160352906997043</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>585332</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>569250</v>
+        <v>569865</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>598643</v>
+        <v>597380</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9164886008822007</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8913088619712166</v>
+        <v>0.8922707272500632</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9373301017484013</v>
+        <v>0.9353531987680425</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>621</v>
@@ -1199,19 +1199,19 @@
         <v>650744</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>636394</v>
+        <v>637175</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>661186</v>
+        <v>661222</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9450088427639841</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9241692337889482</v>
+        <v>0.9253033105583017</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9601726156964526</v>
+        <v>0.9602243857874141</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1182</v>
@@ -1220,19 +1220,19 @@
         <v>1236075</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1216274</v>
+        <v>1215078</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1253992</v>
+        <v>1255256</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9312853147850748</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9163665868237574</v>
+        <v>0.9154656498707833</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9447841713222964</v>
+        <v>0.9457359769181934</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>53336</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>40025</v>
+        <v>41288</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>69418</v>
+        <v>68803</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0835113991177993</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06266989825159872</v>
+        <v>0.06464680123195753</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1086911380287836</v>
+        <v>0.107729272749937</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>36</v>
@@ -1270,19 +1270,19 @@
         <v>37868</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>27426</v>
+        <v>27390</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>52218</v>
+        <v>51437</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05499115723601589</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03982738430354742</v>
+        <v>0.0397756142125859</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07583076621105188</v>
+        <v>0.07469668944169822</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>88</v>
@@ -1291,19 +1291,19 @@
         <v>91204</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>73287</v>
+        <v>72023</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>111005</v>
+        <v>112201</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06871468521492521</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05521582867770353</v>
+        <v>0.05426402308180641</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08363341317624241</v>
+        <v>0.08453435012921651</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>475008</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>459678</v>
+        <v>458523</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>488897</v>
+        <v>487241</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.914976916942604</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8854487597376657</v>
+        <v>0.8832245306896255</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9417315482461979</v>
+        <v>0.9385410368752229</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>473</v>
@@ -1416,19 +1416,19 @@
         <v>486418</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>475795</v>
+        <v>475044</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>496333</v>
+        <v>495645</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9433247449280258</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9227231618132307</v>
+        <v>0.9212672395714171</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9625533705116188</v>
+        <v>0.9612183010383215</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>919</v>
@@ -1437,19 +1437,19 @@
         <v>961425</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>943986</v>
+        <v>942177</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>976450</v>
+        <v>977480</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9291028208434442</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9122492863014025</v>
+        <v>0.9105019948395376</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9436218951947701</v>
+        <v>0.9446178594642812</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>44139</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>30250</v>
+        <v>31906</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>59469</v>
+        <v>60624</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08502308305739609</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05826845175380211</v>
+        <v>0.06145896312477704</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1145512402623338</v>
+        <v>0.1167754693103746</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>29</v>
@@ -1487,19 +1487,19 @@
         <v>29224</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>19309</v>
+        <v>19997</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>39847</v>
+        <v>40598</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05667525507197419</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03744662948838114</v>
+        <v>0.03878169896167854</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07727683818676898</v>
+        <v>0.07873276042858288</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>67</v>
@@ -1508,19 +1508,19 @@
         <v>73364</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>58339</v>
+        <v>57309</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>90803</v>
+        <v>92612</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07089717915655581</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05637810480522987</v>
+        <v>0.05538214053571884</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08775071369859751</v>
+        <v>0.08949800516046252</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>356008</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>344845</v>
+        <v>344858</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>366185</v>
+        <v>364950</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9206065912353488</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8917397266982081</v>
+        <v>0.8917743034374449</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9469246770568831</v>
+        <v>0.9437307460740066</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>366</v>
@@ -1633,19 +1633,19 @@
         <v>372713</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>359477</v>
+        <v>361216</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>382010</v>
+        <v>383346</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9225886119193346</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8898242369939743</v>
+        <v>0.8941295554538113</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9456025944627044</v>
+        <v>0.9489082089593482</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>727</v>
@@ -1654,19 +1654,19 @@
         <v>728721</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>712054</v>
+        <v>710854</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>741602</v>
+        <v>741899</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9216192541956307</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9005405286501984</v>
+        <v>0.8990233981440471</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.937909815458407</v>
+        <v>0.938286091196835</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>30702</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>20525</v>
+        <v>21760</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>41865</v>
+        <v>41852</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0793934087646512</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05307532294311677</v>
+        <v>0.05626925392599345</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1082602733017917</v>
+        <v>0.1082256965625554</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>30</v>
@@ -1704,19 +1704,19 @@
         <v>31273</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>21976</v>
+        <v>20640</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>44509</v>
+        <v>42770</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07741138808066542</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05439740553729554</v>
+        <v>0.05109179104065179</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1101757630060258</v>
+        <v>0.105870444546189</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>61</v>
@@ -1725,19 +1725,19 @@
         <v>61975</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>49094</v>
+        <v>48797</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>78642</v>
+        <v>79842</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07838074580436932</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06209018454159299</v>
+        <v>0.06171390880316481</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09945947134980161</v>
+        <v>0.100976601855953</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>269043</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>257548</v>
+        <v>258211</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>276689</v>
+        <v>276814</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.9195428145070996</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8802548807368559</v>
+        <v>0.8825231890133113</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9456758976372558</v>
+        <v>0.9461047634867217</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>352</v>
@@ -1850,19 +1850,19 @@
         <v>325726</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>317888</v>
+        <v>316728</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>332130</v>
+        <v>332546</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.9498210615322287</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.9269666117619679</v>
+        <v>0.9235832547879378</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9684962071771757</v>
+        <v>0.9697097102227245</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>630</v>
@@ -1871,19 +1871,19 @@
         <v>594769</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>582273</v>
+        <v>582985</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>605641</v>
+        <v>606565</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.9358813866428982</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.9162200362231682</v>
+        <v>0.9173399343651869</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9529888080059381</v>
+        <v>0.9544437074398696</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>23540</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>15894</v>
+        <v>15769</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>35035</v>
+        <v>34372</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08045718549290042</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0543241023627442</v>
+        <v>0.05389523651327826</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.119745119263145</v>
+        <v>0.1174768109866884</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>19</v>
@@ -1921,19 +1921,19 @@
         <v>17208</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>10804</v>
+        <v>10388</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>25046</v>
+        <v>26206</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05017893846777128</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0315037928228243</v>
+        <v>0.03029028977727543</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07303338823803207</v>
+        <v>0.07641674521206211</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>44</v>
@@ -1942,19 +1942,19 @@
         <v>40748</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>29876</v>
+        <v>28952</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>53244</v>
+        <v>52532</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0641186133571018</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04701119199406185</v>
+        <v>0.04555629256013025</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08377996377683163</v>
+        <v>0.08266006563481292</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>200100</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>192788</v>
+        <v>191992</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>204871</v>
+        <v>204647</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9533874016177093</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.918551712409685</v>
+        <v>0.9147550670368884</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9761210054368402</v>
+        <v>0.9750525394346184</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>280</v>
@@ -2067,19 +2067,19 @@
         <v>323635</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>315610</v>
+        <v>314933</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>329038</v>
+        <v>328370</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.96923477185341</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9452001109686604</v>
+        <v>0.9431721635569901</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9854144546405857</v>
+        <v>0.983415915966797</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>489</v>
@@ -2088,19 +2088,19 @@
         <v>523735</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>514103</v>
+        <v>512621</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>531644</v>
+        <v>530868</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9631182790828389</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9454055542195313</v>
+        <v>0.9426798084063761</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9776628144131198</v>
+        <v>0.9762352215884914</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>9783</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5012</v>
+        <v>5236</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17095</v>
+        <v>17891</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04661259838229066</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02387899456315961</v>
+        <v>0.02494746056538155</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.08144828759031478</v>
+        <v>0.08524493296311166</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>10</v>
@@ -2138,19 +2138,19 @@
         <v>10273</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4870</v>
+        <v>5538</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>18298</v>
+        <v>18975</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03076522814659001</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01458554535941434</v>
+        <v>0.01658408403320272</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05479988903133968</v>
+        <v>0.05682783644300988</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>21</v>
@@ -2159,19 +2159,19 @@
         <v>20056</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>12147</v>
+        <v>12923</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>29688</v>
+        <v>31170</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03688172091716115</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02233718558687997</v>
+        <v>0.02376477841150876</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0545944457804686</v>
+        <v>0.05732019159362392</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>3042541</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3011617</v>
+        <v>3008336</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3072603</v>
+        <v>3066900</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.9288327637095578</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.9193922347015256</v>
+        <v>0.9183905642118716</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9380101242385006</v>
+        <v>0.9362691151065636</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3108</v>
@@ -2284,19 +2284,19 @@
         <v>3185936</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3157927</v>
+        <v>3157139</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>3211411</v>
+        <v>3212934</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.9431245864588624</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.9348332449852381</v>
+        <v>0.9345997695830968</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9506658952196159</v>
+        <v>0.9511167037688082</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>6094</v>
@@ -2305,19 +2305,19 @@
         <v>6228477</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6188258</v>
+        <v>6189986</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>6268395</v>
+        <v>6270333</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.9360886533320603</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.9300440490684013</v>
+        <v>0.9303036556572525</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9420879043686058</v>
+        <v>0.9423792449104453</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>233120</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>203058</v>
+        <v>208761</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>264044</v>
+        <v>267325</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.07116723629044223</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06198987576149954</v>
+        <v>0.06373088489343658</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08060776529847447</v>
+        <v>0.08160943578812875</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>188</v>
@@ -2355,19 +2355,19 @@
         <v>192129</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>166654</v>
+        <v>165131</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>220138</v>
+        <v>220926</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05687541354113756</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04933410478038424</v>
+        <v>0.04888329623119179</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06516675501476202</v>
+        <v>0.06540023041690336</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>415</v>
@@ -2376,19 +2376,19 @@
         <v>425249</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>385331</v>
+        <v>383393</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>465468</v>
+        <v>463740</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.06391134666793978</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05791209563139429</v>
+        <v>0.05762075508955462</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.06995595093159868</v>
+        <v>0.06969634434274773</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>429300</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>417982</v>
+        <v>418819</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>437383</v>
+        <v>437401</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9471957483899487</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9222224275179026</v>
+        <v>0.9240709503208187</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9650290101625978</v>
+        <v>0.9650678177562236</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>389</v>
@@ -2744,19 +2744,19 @@
         <v>397423</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>385498</v>
+        <v>385000</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>407825</v>
+        <v>407234</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9237458817776194</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8960266269783728</v>
+        <v>0.8948708697020906</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9479234155801471</v>
+        <v>0.9465502771646094</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>810</v>
@@ -2765,19 +2765,19 @@
         <v>826724</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>810087</v>
+        <v>810848</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>839113</v>
+        <v>839901</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9357760984837475</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9169454853335358</v>
+        <v>0.9178068131303022</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9497995281011788</v>
+        <v>0.9506915793423</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>23933</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15850</v>
+        <v>15832</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>35251</v>
+        <v>34414</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05280425161005127</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03497098983740223</v>
+        <v>0.0349321822437763</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07777757248209738</v>
+        <v>0.07592904967918131</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>32</v>
@@ -2815,19 +2815,19 @@
         <v>32807</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>22405</v>
+        <v>22996</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>44732</v>
+        <v>45230</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07625411822238057</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05207658441985295</v>
+        <v>0.0534497228353906</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1039733730216282</v>
+        <v>0.1051291302979093</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>56</v>
@@ -2836,19 +2836,19 @@
         <v>56739</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>44350</v>
+        <v>43562</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>73376</v>
+        <v>72615</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06422390151625243</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05020047189882117</v>
+        <v>0.04930842065770005</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08305451466646419</v>
+        <v>0.08219318686969782</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>638405</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>622971</v>
+        <v>622070</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>652181</v>
+        <v>650708</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9291473151937998</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.906684672147111</v>
+        <v>0.9053736119695404</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9491978174980421</v>
+        <v>0.9470529763960461</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>525</v>
@@ -2961,19 +2961,19 @@
         <v>559815</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>544688</v>
+        <v>543406</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>573572</v>
+        <v>573755</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9173465032279295</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8925574269459423</v>
+        <v>0.890457750453298</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9398896710976813</v>
+        <v>0.9401886306026163</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1146</v>
@@ -2982,19 +2982,19 @@
         <v>1198220</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1177011</v>
+        <v>1176300</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1216733</v>
+        <v>1218064</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9235963449489184</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9072480426164811</v>
+        <v>0.9066999868597477</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9378663526400814</v>
+        <v>0.9388921275363735</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>48682</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>34906</v>
+        <v>36379</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>64116</v>
+        <v>65017</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07085268480620019</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05080218250195791</v>
+        <v>0.05294702360395394</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09331532785288918</v>
+        <v>0.09462638803045977</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>46</v>
@@ -3032,19 +3032,19 @@
         <v>50440</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>36683</v>
+        <v>36500</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>65567</v>
+        <v>66849</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08265349677207048</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06011032890231871</v>
+        <v>0.05981136939738375</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1074425730540572</v>
+        <v>0.1095422495467019</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>92</v>
@@ -3053,19 +3053,19 @@
         <v>99122</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>80609</v>
+        <v>79278</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>120331</v>
+        <v>121042</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07640365505108161</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0621336473599185</v>
+        <v>0.06110787246362651</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09275195738351895</v>
+        <v>0.09330001314025242</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>638310</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>623672</v>
+        <v>623183</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>650562</v>
+        <v>648871</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9361264905153633</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9146586524981443</v>
+        <v>0.9139417881175353</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9540942871267425</v>
+        <v>0.9516145114501342</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>624</v>
@@ -3178,19 +3178,19 @@
         <v>665329</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>649677</v>
+        <v>652501</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>677060</v>
+        <v>677502</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9397579895275101</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9176495583700861</v>
+        <v>0.921638495150499</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9563279563503361</v>
+        <v>0.9569517593187694</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1234</v>
@@ -3199,19 +3199,19 @@
         <v>1303639</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1282392</v>
+        <v>1284387</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1320018</v>
+        <v>1322849</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9379763597054848</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9226891985878082</v>
+        <v>0.9241247162611024</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9497608836841214</v>
+        <v>0.9517978933893937</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>43553</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>31301</v>
+        <v>32992</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>58191</v>
+        <v>58680</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06387350948463666</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04590571287325747</v>
+        <v>0.0483854885498658</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08534134750185558</v>
+        <v>0.08605821188246444</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>40</v>
@@ -3249,19 +3249,19 @@
         <v>42650</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>30919</v>
+        <v>30477</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>58302</v>
+        <v>55478</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06024201047248985</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04367204364966321</v>
+        <v>0.04304824068123056</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08235044162991326</v>
+        <v>0.07836150484950098</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>81</v>
@@ -3270,19 +3270,19 @@
         <v>86203</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>69824</v>
+        <v>66993</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>107450</v>
+        <v>105455</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06202364029451522</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05023911631587874</v>
+        <v>0.04820210661060644</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07731080141219213</v>
+        <v>0.07587528373889761</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>568125</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>550437</v>
+        <v>551788</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>579710</v>
+        <v>581165</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9243554780520692</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8955775591808324</v>
+        <v>0.8977761363997625</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9432058441914219</v>
+        <v>0.9455721962843173</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>506</v>
@@ -3395,19 +3395,19 @@
         <v>577209</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>562282</v>
+        <v>562154</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>588827</v>
+        <v>589315</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9382820191340361</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9140183991508549</v>
+        <v>0.9138094043211491</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9571679150880446</v>
+        <v>0.9579622895658787</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1014</v>
@@ -3416,19 +3416,19 @@
         <v>1145332</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1125433</v>
+        <v>1124247</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1162301</v>
+        <v>1161919</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9313219145220224</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.915141037542381</v>
+        <v>0.9141768279199459</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9451200614805256</v>
+        <v>0.9448094462140726</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>46492</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>34907</v>
+        <v>33452</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>64180</v>
+        <v>62829</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07564452194793085</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05679415580857798</v>
+        <v>0.0544278037156827</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1044224408191676</v>
+        <v>0.1022238636002374</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>32</v>
@@ -3466,19 +3466,19 @@
         <v>37967</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>26349</v>
+        <v>25861</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>52894</v>
+        <v>53022</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06171798086596392</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04283208491195539</v>
+        <v>0.04203771043412115</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08598160084914508</v>
+        <v>0.0861905956788509</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>72</v>
@@ -3487,19 +3487,19 @@
         <v>84460</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>67491</v>
+        <v>67873</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>104359</v>
+        <v>105545</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06867808547797766</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05487993851947431</v>
+        <v>0.05519055378592724</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08485896245761901</v>
+        <v>0.08582317208005391</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>390241</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>376733</v>
+        <v>376648</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>401186</v>
+        <v>401665</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.908743535898127</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8772874928015134</v>
+        <v>0.8770905006529369</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9342320392795829</v>
+        <v>0.9353466897803855</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>388</v>
@@ -3612,19 +3612,19 @@
         <v>428056</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>417420</v>
+        <v>417230</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>435066</v>
+        <v>435521</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9581446092314776</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9343382272956251</v>
+        <v>0.9339118110597918</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9738357959143107</v>
+        <v>0.9748533879087695</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>745</v>
@@ -3633,19 +3633,19 @@
         <v>818298</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>801442</v>
+        <v>802317</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>832260</v>
+        <v>832505</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9339325194864422</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.914695303311577</v>
+        <v>0.9156940282461172</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.949868076035321</v>
+        <v>0.9501472452504972</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>39188</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>28243</v>
+        <v>27764</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>52696</v>
+        <v>52781</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09125646410187302</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06576796072041723</v>
+        <v>0.06465331021961447</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1227125071984865</v>
+        <v>0.1229094993470626</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -3683,19 +3683,19 @@
         <v>18699</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11689</v>
+        <v>11234</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>29335</v>
+        <v>29525</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0418553907685224</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02616420408568932</v>
+        <v>0.02514661209123054</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.065661772704375</v>
+        <v>0.06608818894020824</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>53</v>
@@ -3704,19 +3704,19 @@
         <v>57887</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>43925</v>
+        <v>43680</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>74743</v>
+        <v>73868</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06606748051355781</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05013192396467944</v>
+        <v>0.04985275474950289</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0853046966884231</v>
+        <v>0.08430597175388313</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>296549</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>287016</v>
+        <v>287142</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>302903</v>
+        <v>302842</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.9572698967162923</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9264962544083468</v>
+        <v>0.9269059134575618</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9777807206921489</v>
+        <v>0.9775855293511868</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>334</v>
@@ -3829,19 +3829,19 @@
         <v>344011</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>337478</v>
+        <v>335645</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>348911</v>
+        <v>348266</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.9745084004420611</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.9560016563309318</v>
+        <v>0.9508089661749186</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9883895858050176</v>
+        <v>0.9865615504095123</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>604</v>
@@ -3850,19 +3850,19 @@
         <v>640561</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>628335</v>
+        <v>628420</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>647708</v>
+        <v>648788</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.9664512519172656</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.9480049716400851</v>
+        <v>0.9481329410225118</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.977234870914811</v>
+        <v>0.978863713859905</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>13237</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6883</v>
+        <v>6944</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>22770</v>
+        <v>22644</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04273010328370776</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02221927930785108</v>
+        <v>0.02241447064881321</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07350374559165325</v>
+        <v>0.07309408654243821</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>9</v>
@@ -3900,19 +3900,19 @@
         <v>8999</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4099</v>
+        <v>4744</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>15532</v>
+        <v>17365</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02549159955793885</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01161041419498238</v>
+        <v>0.01343844959048767</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04399834366906816</v>
+        <v>0.04919103382508151</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>21</v>
@@ -3921,19 +3921,19 @@
         <v>22236</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>15089</v>
+        <v>14009</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>34462</v>
+        <v>34377</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0335487480827345</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02276512908518899</v>
+        <v>0.02113628614009502</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05199502835991488</v>
+        <v>0.05186705897748818</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>236006</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>225754</v>
+        <v>225217</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>242381</v>
+        <v>242420</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9445878849700056</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9035544481008513</v>
+        <v>0.9014033574541552</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9701018793803273</v>
+        <v>0.970257268212982</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>336</v>
@@ -4046,19 +4046,19 @@
         <v>373175</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>363373</v>
+        <v>363490</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>380070</v>
+        <v>380102</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9593712194137961</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9341713965949858</v>
+        <v>0.9344710820881023</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9770967378853561</v>
+        <v>0.9771782084445446</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>547</v>
@@ -4067,19 +4067,19 @@
         <v>609181</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>595554</v>
+        <v>596985</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>619105</v>
+        <v>619163</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9535893532075271</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9322581766552651</v>
+        <v>0.9344981122405638</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9691235710537559</v>
+        <v>0.9692134651774506</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>13845</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7470</v>
+        <v>7431</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>24097</v>
+        <v>24634</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.05541211502999446</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02989812061967275</v>
+        <v>0.029742731787018</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09644555189914852</v>
+        <v>0.09859664254584478</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>14</v>
@@ -4117,19 +4117,19 @@
         <v>15804</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>8909</v>
+        <v>8877</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>25606</v>
+        <v>25489</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04062878058620388</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02290326211464392</v>
+        <v>0.02282179155545538</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06582860340501437</v>
+        <v>0.06552891791189797</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>25</v>
@@ -4138,19 +4138,19 @@
         <v>29649</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>19725</v>
+        <v>19667</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>43276</v>
+        <v>41845</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04641064679247281</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0308764289462439</v>
+        <v>0.0307865348225491</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06774182334473479</v>
+        <v>0.0655018877594362</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>3196935</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3165544</v>
+        <v>3163118</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3228864</v>
+        <v>3223465</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.9331759871575933</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.9240131857381787</v>
+        <v>0.923304948838276</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9424960034336447</v>
+        <v>0.9409200994019693</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3102</v>
@@ -4263,19 +4263,19 @@
         <v>3345019</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3313366</v>
+        <v>3314291</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>3371733</v>
+        <v>3370771</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.9416263433026405</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.9327160412204542</v>
+        <v>0.9329762086041228</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9491461774348536</v>
+        <v>0.9488756013443324</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>6100</v>
@@ -4284,19 +4284,19 @@
         <v>6541954</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6498343</v>
+        <v>6495522</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>6584508</v>
+        <v>6579492</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.9374777702131148</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.931228176628615</v>
+        <v>0.9308239186155596</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9435758011996198</v>
+        <v>0.9428569902130046</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>228930</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>197001</v>
+        <v>202400</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>260321</v>
+        <v>262747</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.06682401284240674</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05750399656635533</v>
+        <v>0.05907990059803066</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07598681426182141</v>
+        <v>0.07669505116172394</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>190</v>
@@ -4334,19 +4334,19 @@
         <v>207366</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>180652</v>
+        <v>181614</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>239019</v>
+        <v>238094</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05837365669735946</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0508538225651461</v>
+        <v>0.05112439865566762</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06728395877954582</v>
+        <v>0.06702379139587707</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>400</v>
@@ -4355,19 +4355,19 @@
         <v>436296</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>393742</v>
+        <v>398758</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>479907</v>
+        <v>482728</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.06252222978688519</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05642419880037993</v>
+        <v>0.05714300978699486</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0687718233713849</v>
+        <v>0.06917608138444031</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>395879</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>385265</v>
+        <v>385914</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>403900</v>
+        <v>404447</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9483632125376932</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9229369948677051</v>
+        <v>0.9244915063424481</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.96757811483457</v>
+        <v>0.9688884057673757</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>370</v>
@@ -4723,19 +4723,19 @@
         <v>362495</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>351004</v>
+        <v>350503</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>372522</v>
+        <v>371626</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9159580392583695</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8869221378288943</v>
+        <v>0.8856566767696412</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9412941553058591</v>
+        <v>0.939031262991214</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>741</v>
@@ -4744,19 +4744,19 @@
         <v>758374</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>742527</v>
+        <v>742198</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>770685</v>
+        <v>770843</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9325925738729337</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.913104969172973</v>
+        <v>0.9127007367994519</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9477320878404468</v>
+        <v>0.9479260292233915</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>21555</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13534</v>
+        <v>12987</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>32169</v>
+        <v>31520</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05163678746230686</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03242188516542996</v>
+        <v>0.03111159423262437</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07706300513229487</v>
+        <v>0.07550849365755184</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>34</v>
@@ -4794,19 +4794,19 @@
         <v>33260</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>23233</v>
+        <v>24129</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>44751</v>
+        <v>45252</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08404196074163052</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05870584469414077</v>
+        <v>0.06096873700878635</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1130778621711056</v>
+        <v>0.1143433232303591</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>54</v>
@@ -4815,19 +4815,19 @@
         <v>54815</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>42504</v>
+        <v>42346</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>70662</v>
+        <v>70991</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06740742612706628</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05226791215955311</v>
+        <v>0.05207397077660846</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08689503082702706</v>
+        <v>0.08729926320054807</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>527164</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>511654</v>
+        <v>509763</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>540755</v>
+        <v>540732</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8941403860947237</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.867833903261727</v>
+        <v>0.8646256362962982</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9171931658246992</v>
+        <v>0.9171547432205939</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>543</v>
@@ -4940,19 +4940,19 @@
         <v>528350</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>517500</v>
+        <v>517436</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>538797</v>
+        <v>539513</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9375495428572713</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9182955421652129</v>
+        <v>0.9181827881058601</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9560871307464874</v>
+        <v>0.9573576067180052</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1048</v>
@@ -4961,19 +4961,19 @@
         <v>1055513</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1034139</v>
+        <v>1036131</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1072469</v>
+        <v>1072601</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9153549821391203</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8968189780814804</v>
+        <v>0.8985467733034219</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9300596846138098</v>
+        <v>0.9301736001571236</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>62412</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>48821</v>
+        <v>48844</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>77922</v>
+        <v>79813</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1058596139052763</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08280683417530077</v>
+        <v>0.08284525677940613</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.132166096738273</v>
+        <v>0.1353743637037019</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>36</v>
@@ -5011,19 +5011,19 @@
         <v>35194</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>24747</v>
+        <v>24031</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>46044</v>
+        <v>46108</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06245045714272864</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04391286925351266</v>
+        <v>0.04264239328199552</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08170445783478741</v>
+        <v>0.08181721189414042</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>97</v>
@@ -5032,19 +5032,19 @@
         <v>97606</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>80650</v>
+        <v>80518</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>118980</v>
+        <v>116988</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.08464501786087972</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06994031538619024</v>
+        <v>0.06982639984287671</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1031810219185196</v>
+        <v>0.1014532266965801</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>604452</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>586545</v>
+        <v>586984</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>618769</v>
+        <v>619857</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9060620914610359</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8792202951627739</v>
+        <v>0.8798783723583826</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9275233746996405</v>
+        <v>0.9291542207089354</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>624</v>
@@ -5157,19 +5157,19 @@
         <v>621614</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>608106</v>
+        <v>609007</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>632255</v>
+        <v>631504</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.94111944409354</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9206681358756202</v>
+        <v>0.9220330339220416</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9572294211871875</v>
+        <v>0.9560925721273892</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1204</v>
@@ -5178,19 +5178,19 @@
         <v>1226067</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1204242</v>
+        <v>1205980</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1243736</v>
+        <v>1244941</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9235034271989201</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9070644441940295</v>
+        <v>0.908373147285831</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9368121277434276</v>
+        <v>0.9377196818346002</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>62668</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>48351</v>
+        <v>47263</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>80575</v>
+        <v>80136</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.09393790853896415</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0724766253003595</v>
+        <v>0.07084577929106474</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1207797048372262</v>
+        <v>0.1201216276416178</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>40</v>
@@ -5228,19 +5228,19 @@
         <v>38891</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>28250</v>
+        <v>29001</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>52399</v>
+        <v>51498</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05888055590646003</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04277057881281249</v>
+        <v>0.04390742787261084</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07933186412437958</v>
+        <v>0.07796696607795846</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>96</v>
@@ -5249,19 +5249,19 @@
         <v>101559</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>83890</v>
+        <v>82685</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>123384</v>
+        <v>121646</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07649657280107994</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06318787225657245</v>
+        <v>0.06228031816539982</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09293555580597065</v>
+        <v>0.09162685271416897</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>577928</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>559294</v>
+        <v>561348</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>592639</v>
+        <v>592966</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8960613584934122</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8671701079972829</v>
+        <v>0.8703546968352271</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9188693738225707</v>
+        <v>0.9193774237048276</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>557</v>
@@ -5374,19 +5374,19 @@
         <v>600735</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>585984</v>
+        <v>586620</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>612488</v>
+        <v>611940</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9285064789658822</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9057068724734393</v>
+        <v>0.9066889157895052</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.946671035185333</v>
+        <v>0.9458247482358493</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1078</v>
@@ -5395,19 +5395,19 @@
         <v>1178664</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1153512</v>
+        <v>1156913</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1197042</v>
+        <v>1199983</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9123093589810994</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8928413782154683</v>
+        <v>0.8954739040086102</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9265342863254735</v>
+        <v>0.9288110069569216</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>67037</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>52326</v>
+        <v>51999</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>85671</v>
+        <v>83617</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1039386415065879</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08113062617742939</v>
+        <v>0.0806225762951725</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1328298920027171</v>
+        <v>0.129645303164773</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>43</v>
@@ -5445,19 +5445,19 @@
         <v>46256</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>34503</v>
+        <v>35051</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>61007</v>
+        <v>60371</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07149352103411773</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05332896481466697</v>
+        <v>0.05417525176415089</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09429312752656076</v>
+        <v>0.09331108421049485</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>103</v>
@@ -5466,19 +5466,19 @@
         <v>113292</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>94914</v>
+        <v>91973</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>138444</v>
+        <v>135043</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0876906410189006</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07346571367452659</v>
+        <v>0.07118899304307832</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1071586217845318</v>
+        <v>0.1045260959913901</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>439809</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>425452</v>
+        <v>425972</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>450192</v>
+        <v>451424</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9202607885143577</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8902192832051542</v>
+        <v>0.8913067634293868</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9419856452827559</v>
+        <v>0.9445634401247534</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>408</v>
@@ -5591,19 +5591,19 @@
         <v>466923</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>452914</v>
+        <v>452930</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>476304</v>
+        <v>477033</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9397686188264093</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9115721380950743</v>
+        <v>0.911603958838022</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9586503082424084</v>
+        <v>0.9601158626689691</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>800</v>
@@ -5612,19 +5612,19 @@
         <v>906732</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>887532</v>
+        <v>888958</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>920462</v>
+        <v>923382</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9302041349870765</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9105067974076183</v>
+        <v>0.91196981457462</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9442892713307094</v>
+        <v>0.9472846332936319</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>38109</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>27726</v>
+        <v>26494</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>52466</v>
+        <v>51946</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07973921148564236</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05801435471724423</v>
+        <v>0.05543655987524664</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1097807167948459</v>
+        <v>0.1086932365706131</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>25</v>
@@ -5662,19 +5662,19 @@
         <v>29926</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>20545</v>
+        <v>19816</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>43935</v>
+        <v>43919</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06023138117359077</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04134969175759166</v>
+        <v>0.03988413733103092</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08842786190492659</v>
+        <v>0.08839604116197797</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>57</v>
@@ -5683,19 +5683,19 @@
         <v>68035</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>54305</v>
+        <v>51385</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>87235</v>
+        <v>85809</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06979586501292342</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05571072866929042</v>
+        <v>0.05271536670636819</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08949320259238161</v>
+        <v>0.08803018542537998</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>321446</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>312520</v>
+        <v>312853</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>327036</v>
+        <v>326564</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.9614636219541893</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9347650407220879</v>
+        <v>0.9357620288361671</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9781828468350046</v>
+        <v>0.976770149808434</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>335</v>
@@ -5808,19 +5808,19 @@
         <v>358140</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>348996</v>
+        <v>348481</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>365562</v>
+        <v>365486</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.9480567096196345</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.9238521899047719</v>
+        <v>0.9224872904743877</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9677050931718494</v>
+        <v>0.9675028002461076</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>647</v>
@@ -5829,19 +5829,19 @@
         <v>679586</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>667947</v>
+        <v>666963</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>690320</v>
+        <v>689020</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.9543513077581409</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.9380063748345863</v>
+        <v>0.9366242831724767</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.969424917295447</v>
+        <v>0.9675998513400816</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>12884</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7294</v>
+        <v>7766</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>21810</v>
+        <v>21477</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03853637804581071</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02181715316499774</v>
+        <v>0.02322985019156596</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06523495927791259</v>
+        <v>0.06423797116383355</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>19</v>
@@ -5879,19 +5879,19 @@
         <v>19622</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>12200</v>
+        <v>12276</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>28766</v>
+        <v>29281</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05194329038036555</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0322949068281508</v>
+        <v>0.03249719975389254</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07614781009522806</v>
+        <v>0.07751270952561239</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>32</v>
@@ -5900,19 +5900,19 @@
         <v>32506</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>21772</v>
+        <v>23072</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>44145</v>
+        <v>45129</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04564869224185913</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03057508270455302</v>
+        <v>0.03240014865991842</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06199362516541376</v>
+        <v>0.06337571682752334</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>241388</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>233944</v>
+        <v>233069</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>247421</v>
+        <v>247288</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9425307483966444</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9134645239995166</v>
+        <v>0.91004758239937</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9660869739896504</v>
+        <v>0.9655705588120698</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>295</v>
@@ -6025,19 +6025,19 @@
         <v>392785</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>384241</v>
+        <v>383132</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>396655</v>
+        <v>396686</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9815482439156717</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9601972132537619</v>
+        <v>0.9574258497909429</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9912194757194239</v>
+        <v>0.9912960511267261</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>579</v>
@@ -6046,19 +6046,19 @@
         <v>634173</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>622731</v>
+        <v>623217</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>641996</v>
+        <v>641942</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9663219928854953</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9488878991637446</v>
+        <v>0.9496281654876425</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9782417518299751</v>
+        <v>0.9781594942818769</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>14718</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8685</v>
+        <v>8818</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>22162</v>
+        <v>23037</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.05746925160335564</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0339130260103496</v>
+        <v>0.03442944118793025</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.08653547600048335</v>
+        <v>0.08995241760063007</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>6</v>
@@ -6096,19 +6096,19 @@
         <v>7384</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3514</v>
+        <v>3483</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>15928</v>
+        <v>17037</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01845175608432824</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.00878052428057617</v>
+        <v>0.008703948873273934</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03980278674623804</v>
+        <v>0.04257415020905674</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>23</v>
@@ -6117,19 +6117,19 @@
         <v>22102</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>14279</v>
+        <v>14333</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>33544</v>
+        <v>33058</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03367800711450475</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02175824817002492</v>
+        <v>0.02184050571812308</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05111210083625547</v>
+        <v>0.05037183451235747</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>3108065</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3070837</v>
+        <v>3071257</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3137899</v>
+        <v>3140501</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.9175241394658851</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.9065339769979773</v>
+        <v>0.9066579647860566</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.926331129188978</v>
+        <v>0.9270995234120417</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3132</v>
@@ -6242,19 +6242,19 @@
         <v>3331043</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3304974</v>
+        <v>3302020</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>3360753</v>
+        <v>3358193</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.9405541055985142</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.9331931897812016</v>
+        <v>0.9323592392575535</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9489431041359669</v>
+        <v>0.94822016739912</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>6097</v>
@@ -6263,19 +6263,19 @@
         <v>6439108</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6390553</v>
+        <v>6392984</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>6481913</v>
+        <v>6479529</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.9292952572281248</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.9222877870970893</v>
+        <v>0.9226385573346354</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9354727953366554</v>
+        <v>0.9351287688346068</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>279383</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>249549</v>
+        <v>246947</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>316611</v>
+        <v>316191</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.08247586053411494</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07366887081102202</v>
+        <v>0.07290047658795822</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09346602300202253</v>
+        <v>0.09334203521394326</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>203</v>
@@ -6313,19 +6313,19 @@
         <v>210532</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>180822</v>
+        <v>183382</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>236601</v>
+        <v>239555</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05944589440148583</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05105689586403313</v>
+        <v>0.05177983260088002</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06680681021879847</v>
+        <v>0.06764076074244652</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>462</v>
@@ -6334,19 +6334,19 @@
         <v>489915</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>447110</v>
+        <v>449494</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>538470</v>
+        <v>536039</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07070474277187518</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.06452720466334272</v>
+        <v>0.06487123116539303</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07771221290291075</v>
+        <v>0.07736144266536425</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>350929</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>323381</v>
+        <v>324529</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>371432</v>
+        <v>369559</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8605568881027297</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7930028555731055</v>
+        <v>0.7958178721671685</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9108343600646954</v>
+        <v>0.9062412168620301</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>188</v>
@@ -6702,19 +6702,19 @@
         <v>328872</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>312148</v>
+        <v>312239</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>341642</v>
+        <v>340795</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9072044024079297</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8610704399864446</v>
+        <v>0.8613214473081257</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9424289223805163</v>
+        <v>0.9400928033235589</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>338</v>
@@ -6723,19 +6723,19 @@
         <v>679802</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>647041</v>
+        <v>648277</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>705983</v>
+        <v>704970</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8825095973699417</v>
+        <v>0.8825095973699416</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8399802896903051</v>
+        <v>0.8415847434568329</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9164980598069495</v>
+        <v>0.9151825144181333</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>56864</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>36361</v>
+        <v>38234</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>84412</v>
+        <v>83264</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1394431118972704</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08916563993530466</v>
+        <v>0.09375878313796979</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2069971444268944</v>
+        <v>0.2041821278328311</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>19</v>
@@ -6773,19 +6773,19 @@
         <v>33640</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>20870</v>
+        <v>21717</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>50364</v>
+        <v>50273</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09279559759207029</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05757107761948398</v>
+        <v>0.05990719667644106</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1389295600135556</v>
+        <v>0.1386785526918744</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>41</v>
@@ -6794,19 +6794,19 @@
         <v>90503</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>64322</v>
+        <v>65335</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>123264</v>
+        <v>122028</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.1174904026300584</v>
+        <v>0.1174904026300583</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08350194019305013</v>
+        <v>0.08481748558186666</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1600197103096947</v>
+        <v>0.1584152565431668</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>414650</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>392663</v>
+        <v>394802</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>431833</v>
+        <v>432274</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.8694870227952648</v>
+        <v>0.8694870227952649</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8233822619869952</v>
+        <v>0.8278683454844723</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9055192006999089</v>
+        <v>0.906444652686375</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>411</v>
@@ -6919,19 +6919,19 @@
         <v>446725</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>430504</v>
+        <v>432054</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>461323</v>
+        <v>460748</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.891518080374493</v>
+        <v>0.8915180803744932</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8591461858812953</v>
+        <v>0.862241197460489</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9206526815410796</v>
+        <v>0.9195049008641712</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>674</v>
@@ -6940,19 +6940,19 @@
         <v>861374</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>835207</v>
+        <v>836824</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>881692</v>
+        <v>883082</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8807750505828322</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8540180745197971</v>
+        <v>0.8556715979088608</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9015502136551723</v>
+        <v>0.9029713568261495</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>62240</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>45057</v>
+        <v>44616</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>84227</v>
+        <v>82088</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.130512977204735</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09448079930009101</v>
+        <v>0.0935553473136248</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1766177380130051</v>
+        <v>0.1721316545155276</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>49</v>
@@ -6990,19 +6990,19 @@
         <v>54358</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>39760</v>
+        <v>40335</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>70579</v>
+        <v>69029</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1084819196255067</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07934731845892033</v>
+        <v>0.08049509913582885</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1408538141187039</v>
+        <v>0.137758802539511</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>88</v>
@@ -7011,19 +7011,19 @@
         <v>116599</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>96281</v>
+        <v>94891</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>142766</v>
+        <v>141149</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1192249494171678</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09844978634482779</v>
+        <v>0.09702864317385058</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1459819254802031</v>
+        <v>0.1443284020911393</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>544470</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>524939</v>
+        <v>523152</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>560634</v>
+        <v>560362</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8769935652858403</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8455344227061131</v>
+        <v>0.8426551875877518</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9030297609683232</v>
+        <v>0.9025912343392768</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>743</v>
@@ -7136,19 +7136,19 @@
         <v>544130</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>526438</v>
+        <v>529363</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>557369</v>
+        <v>557440</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8746117100259961</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8461741467417135</v>
+        <v>0.8508751616661451</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8958917801096636</v>
+        <v>0.8960059689151362</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1227</v>
@@ -7157,19 +7157,19 @@
         <v>1088600</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1063645</v>
+        <v>1065267</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1110720</v>
+        <v>1109619</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8758013897653628</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8557243117374694</v>
+        <v>0.8570295745608341</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8935969387391639</v>
+        <v>0.8927116929910105</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>76367</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>60203</v>
+        <v>60475</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>95898</v>
+        <v>97685</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1230064347141598</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09697023903167715</v>
+        <v>0.09740876566072332</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.154465577293887</v>
+        <v>0.1573448124122483</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>103</v>
@@ -7207,19 +7207,19 @@
         <v>78009</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>64770</v>
+        <v>64699</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>95701</v>
+        <v>92776</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1253882899740039</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1041082198903364</v>
+        <v>0.1039940310848637</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1538258532582864</v>
+        <v>0.1491248383338548</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>165</v>
@@ -7228,19 +7228,19 @@
         <v>154376</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>132256</v>
+        <v>133357</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>179331</v>
+        <v>177709</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1241986102346372</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.106403061260836</v>
+        <v>0.1072883070089895</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1442756882625302</v>
+        <v>0.1429704254391658</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>611976</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>589538</v>
+        <v>593084</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>628181</v>
+        <v>629418</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.8734820935085185</v>
+        <v>0.8734820935085182</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8414552202355958</v>
+        <v>0.8465170396681174</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8966107399282713</v>
+        <v>0.8983770477266795</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1023</v>
@@ -7353,19 +7353,19 @@
         <v>655814</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>641580</v>
+        <v>641137</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>668768</v>
+        <v>668725</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8904522274307338</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8711257115167037</v>
+        <v>0.8705251914148353</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9080417326479017</v>
+        <v>0.9079826320257133</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1610</v>
@@ -7374,19 +7374,19 @@
         <v>1267790</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1244353</v>
+        <v>1242696</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1290627</v>
+        <v>1287973</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.8821789921597004</v>
+        <v>0.8821789921597005</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8658704936511918</v>
+        <v>0.8647173642632603</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8980697646330337</v>
+        <v>0.8962232591120681</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>88641</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>72436</v>
+        <v>71199</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>111079</v>
+        <v>107533</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1265179064914817</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1033892600717286</v>
+        <v>0.1016229522733205</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1585447797644042</v>
+        <v>0.1534829603318827</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>117</v>
@@ -7424,19 +7424,19 @@
         <v>80681</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>67727</v>
+        <v>67770</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>94915</v>
+        <v>95358</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1095477725692662</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09195826735209835</v>
+        <v>0.0920173679742866</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1288742884832962</v>
+        <v>0.1294748085851645</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>195</v>
@@ -7445,19 +7445,19 @@
         <v>169322</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>146485</v>
+        <v>149139</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>192759</v>
+        <v>194416</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.1178210078402994</v>
+        <v>0.1178210078402995</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1019302353669663</v>
+        <v>0.1037767408879318</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1341295063488083</v>
+        <v>0.1352826357367397</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>520101</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>503070</v>
+        <v>501862</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>536769</v>
+        <v>536836</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.853539344754383</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8255898545704283</v>
+        <v>0.8236077162763865</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8808932417439757</v>
+        <v>0.8810039976772256</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>880</v>
@@ -7570,19 +7570,19 @@
         <v>531027</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>517214</v>
+        <v>516186</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>541616</v>
+        <v>543232</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.8721726637705095</v>
+        <v>0.8721726637705096</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8494861643424571</v>
+        <v>0.8477984000764239</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.889565015771471</v>
+        <v>0.8922185331377673</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1452</v>
@@ -7591,19 +7591,19 @@
         <v>1051128</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1027720</v>
+        <v>1029284</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1071109</v>
+        <v>1071556</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8628522488216924</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8436369225333902</v>
+        <v>0.8449207596561596</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8792536210526488</v>
+        <v>0.8796210376007341</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>89245</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>72577</v>
+        <v>72510</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>106276</v>
+        <v>107484</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1464606552456169</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1191067582560241</v>
+        <v>0.1189960023227745</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1744101454295716</v>
+        <v>0.1763922837236137</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>122</v>
@@ -7641,19 +7641,19 @@
         <v>77828</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>67239</v>
+        <v>65623</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>91641</v>
+        <v>92669</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1278273362294903</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.110434984228529</v>
+        <v>0.1077814668622329</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1505138356575429</v>
+        <v>0.1522015999235763</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>213</v>
@@ -7662,19 +7662,19 @@
         <v>167074</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>147093</v>
+        <v>146646</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>190482</v>
+        <v>188918</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1371477511783076</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1207463789473511</v>
+        <v>0.120378962399266</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1563630774666094</v>
+        <v>0.1550792403438403</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>359323</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>346879</v>
+        <v>346488</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>370328</v>
+        <v>369526</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8826846829352696</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8521156694808038</v>
+        <v>0.8511553599840223</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9097185834326303</v>
+        <v>0.9077475362845357</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>747</v>
@@ -7787,19 +7787,19 @@
         <v>394889</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>385156</v>
+        <v>385711</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>403832</v>
+        <v>404476</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.8991798243241952</v>
+        <v>0.899179824324195</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8770163142495784</v>
+        <v>0.8782816814759897</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9195425825708858</v>
+        <v>0.9210086535560783</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1255</v>
@@ -7808,19 +7808,19 @@
         <v>754212</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>737925</v>
+        <v>737468</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>768085</v>
+        <v>769029</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.8912449704512435</v>
+        <v>0.8912449704512437</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8719986470034417</v>
+        <v>0.8714580810293223</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9076375814555959</v>
+        <v>0.9087532717523937</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>47757</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>36752</v>
+        <v>37554</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>60201</v>
+        <v>60592</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1173153170647303</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09028141656736965</v>
+        <v>0.09225246371546433</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1478843305191963</v>
+        <v>0.1488446400159777</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>80</v>
@@ -7858,19 +7858,19 @@
         <v>44277</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>35334</v>
+        <v>34690</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>54010</v>
+        <v>53455</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1008201756758049</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08045741742911408</v>
+        <v>0.07899134644392171</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1229836857504216</v>
+        <v>0.1217183185240102</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>142</v>
@@ -7879,19 +7879,19 @@
         <v>92034</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>78161</v>
+        <v>77217</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>108321</v>
+        <v>108778</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1087550295487563</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09236241854440402</v>
+        <v>0.0912467282476063</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1280013529965584</v>
+        <v>0.1285419189706777</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>278086</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>268775</v>
+        <v>268239</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>286646</v>
+        <v>286233</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.896478250152136</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8664620734563351</v>
+        <v>0.8647351232189383</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9240742031533193</v>
+        <v>0.9227428453693129</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>808</v>
@@ -8004,19 +8004,19 @@
         <v>421225</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>411295</v>
+        <v>411156</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>430199</v>
+        <v>431323</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.9066234884503749</v>
+        <v>0.9066234884503748</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8852505922324031</v>
+        <v>0.8849507689664947</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.925937402782174</v>
+        <v>0.9283569789135833</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1220</v>
@@ -8025,19 +8025,19 @@
         <v>699311</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>685874</v>
+        <v>684601</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>712403</v>
+        <v>712280</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.9025617866981973</v>
+        <v>0.9025617866981972</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8852186265301137</v>
+        <v>0.8835758465905851</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9194587910565679</v>
+        <v>0.9192993281207116</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>32112</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>23552</v>
+        <v>23965</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>41423</v>
+        <v>41959</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1035217498478639</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0759257968466807</v>
+        <v>0.07725715463068702</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1335379265436648</v>
+        <v>0.1352648767810617</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>73</v>
@@ -8075,19 +8075,19 @@
         <v>43384</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>34410</v>
+        <v>33286</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>53314</v>
+        <v>53453</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.09337651154962505</v>
+        <v>0.09337651154962504</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.07406259721782613</v>
+        <v>0.07164302108641665</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1147494077675968</v>
+        <v>0.115049231033505</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>119</v>
@@ -8096,19 +8096,19 @@
         <v>75496</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>62404</v>
+        <v>62527</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>88933</v>
+        <v>90206</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.09743821330180266</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08054120894343234</v>
+        <v>0.08070067187928831</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1147813734698863</v>
+        <v>0.1164241534094149</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>3079536</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3036005</v>
+        <v>3032182</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3126070</v>
+        <v>3126050</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8717077149217343</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8593856237352596</v>
+        <v>0.8583036144114378</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8848797962498405</v>
+        <v>0.8848742394802361</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4800</v>
@@ -8221,19 +8221,19 @@
         <v>3322683</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3288779</v>
+        <v>3287103</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>3358657</v>
+        <v>3352564</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.8896405523825281</v>
+        <v>0.8896405523825283</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8805629845986034</v>
+        <v>0.8801141115018345</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8992724755102113</v>
+        <v>0.8976410528258651</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>7776</v>
@@ -8242,19 +8242,19 @@
         <v>6402219</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6347201</v>
+        <v>6344748</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>6462045</v>
+        <v>6460782</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.8809234717780878</v>
+        <v>0.8809234717780879</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8733532619272564</v>
+        <v>0.8730156327073653</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8891553239784059</v>
+        <v>0.8889815300828143</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>453226</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>406692</v>
+        <v>406712</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>496757</v>
+        <v>500580</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1282922850782659</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1151202037501601</v>
+        <v>0.1151257605197641</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1406143762647411</v>
+        <v>0.1416963855885623</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>563</v>
@@ -8292,19 +8292,19 @@
         <v>412177</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>376203</v>
+        <v>382296</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>446081</v>
+        <v>447757</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1103594476174718</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1007275244897883</v>
+        <v>0.1023589471741349</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1194370154013965</v>
+        <v>0.1198858884981659</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>963</v>
@@ -8313,19 +8313,19 @@
         <v>865403</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>805577</v>
+        <v>806840</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>920421</v>
+        <v>922874</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1190765282219121</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1108446760215939</v>
+        <v>0.1110184699171856</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1266467380727437</v>
+        <v>0.1269843672926347</v>
       </c>
     </row>
     <row r="27">
